--- a/xlsx/瓦格纳_intext.xlsx
+++ b/xlsx/瓦格纳_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="754">
   <si>
     <t>瓦格纳</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>薩克森王國</t>
+    <t>萨克森王国</t>
   </si>
   <si>
     <t>政策_政策_社会政策_瓦格纳</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>義大利王國</t>
+    <t>义大利王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E4%BD%9C%E5%AE%B6</t>
   </si>
   <si>
-    <t>劇作家</t>
+    <t>剧作家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87%E5%8A%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>歌劇劇本</t>
+    <t>歌剧剧本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%89%A7</t>
@@ -131,25 +131,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>視覺藝術</t>
+    <t>视觉艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87</t>
   </si>
   <si>
-    <t>歌劇</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BC%AF%E9%BE%8D%E6%A0%B9%E7%9A%84%E6%8C%87%E7%92%B0</t>
   </si>
   <si>
-    <t>尼伯龍根的指環</t>
+    <t>尼伯龙根的指环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E7%B9%94%E5%BA%A6</t>
   </si>
   <si>
-    <t>音樂織度</t>
+    <t>音乐织度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%A3%B0</t>
@@ -179,25 +176,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E6%80%A7</t>
   </si>
   <si>
-    <t>調性</t>
+    <t>调性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>古典音樂</t>
+    <t>古典音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%94%E6%96%AF%E5%9D%A6%E8%88%87%E4%BC%8A%E7%B4%A2%E5%BE%B7</t>
   </si>
   <si>
-    <t>崔斯坦與伊索德</t>
+    <t>崔斯坦与伊索德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>現代音樂</t>
+    <t>现代音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E7%BD%97%E4%BC%8A%E7%89%B9%E8%8A%82%E6%97%A5%E5%89%A7%E9%99%A2</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E7%BE%85%E4%BC%8A%E7%89%B9%E9%9F%B3%E6%A8%82%E7%AF%80</t>
   </si>
   <si>
-    <t>拜羅伊特音樂節</t>
+    <t>拜罗伊特音乐节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%8A%B9%E5%A4%AA%E4%B8%BB%E4%B9%89</t>
@@ -281,9 +278,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%A3%AE%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
-    <t>萨克森王国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
@@ -305,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%A0%BC%E5%BC%97%E9%87%8C%E5%BE%B7_(%E6%AD%8C%E5%8A%87)</t>
   </si>
   <si>
-    <t>齊格弗里德 (歌劇)</t>
+    <t>齐格弗里德 (歌剧)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Die_Laune_des_Verliebten</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E6%81%A9%E6%BF%9F</t>
   </si>
   <si>
-    <t>黎恩濟</t>
+    <t>黎恩济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Grand_Opera</t>
@@ -359,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%82%E6%B3%8A%E7%9A%84%E8%8D%B7%E8%98%AD%E4%BA%BA_(%E6%AD%8C%E5%8A%87)</t>
   </si>
   <si>
-    <t>漂泊的荷蘭人 (歌劇)</t>
+    <t>漂泊的荷兰人 (歌剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%87%B7%E7%91%9F_(%E6%AD%8C%E5%8A%87)</t>
   </si>
   <si>
-    <t>唐懷瑟 (歌劇)</t>
+    <t>唐怀瑟 (歌剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%81%A9%E6%A0%BC%E6%9E%97</t>
@@ -389,19 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E7%BD%97%E4%BC%8A%E7%89%B9%E9%9F%B3%E4%B9%90%E8%8A%82</t>
   </si>
   <si>
-    <t>拜罗伊特音乐节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BC%AF%E9%BE%99%E6%A0%B9%E7%9A%84%E6%8C%87%E7%8E%AF</t>
   </si>
   <si>
-    <t>尼伯龙根的指环</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E5%B8%8C%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>布倫希爾德</t>
+    <t>布伦希尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%AD%A6%E7%A5%9E</t>
@@ -413,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%C2%B7%E6%8B%89%E5%85%8B%E5%A7%86</t>
   </si>
   <si>
-    <t>亞瑟·拉克姆</t>
+    <t>亚瑟·拉克姆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Germanic_mythology</t>
@@ -431,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%AB%BE%E7%88%BE%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>古諾爾斯語</t>
+    <t>古诺尔斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E4%BD%93%E5%9F%83%E8%BE%BE</t>
@@ -539,15 +527,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B0%83%E6%80%A7</t>
   </si>
   <si>
-    <t>调性</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E9%9F%B3%E4%B9%90</t>
   </si>
   <si>
-    <t>古典音乐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91</t>
   </si>
   <si>
@@ -563,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E7%A5%9E%E7%9A%84%E9%BB%83%E6%98%8F_(%E6%AD%8C%E5%8A%87)</t>
   </si>
   <si>
-    <t>諸神的黃昏 (歌劇)</t>
+    <t>诸神的黄昏 (歌剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%9D%AF</t>
@@ -599,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%A2%9D</t>
   </si>
   <si>
-    <t>教條</t>
+    <t>教条</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Andr%C3%A9_Gill</t>
@@ -611,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>報刊</t>
+    <t>报刊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/L%27Eclipse</t>
@@ -665,37 +647,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%82%E6%B3%8A%E7%9A%84%E8%8D%B7%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>漂泊的荷蘭人</t>
+    <t>漂泊的荷兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%87%B7%E7%91%9F</t>
   </si>
   <si>
-    <t>唐懷瑟</t>
+    <t>唐怀瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%81%A9%E6%A0%BC%E6%9E%97</t>
   </si>
   <si>
-    <t>羅恩格林</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%80%AB%E5%A0%A1%E7%9A%84%E5%90%8D%E6%AD%8C%E6%89%8B</t>
   </si>
   <si>
-    <t>紐倫堡的名歌手</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E8%B2%9D%E9%BE%8D%E6%A0%B9%E7%9A%84%E6%8C%87%E7%92%B0</t>
   </si>
   <si>
-    <t>尼貝龍根的指環</t>
+    <t>尼贝龙根的指环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%A0%BC%E8%8F%B2_(%E6%AD%8C%E5%8A%87)</t>
   </si>
   <si>
-    <t>齊格菲 (歌劇)</t>
+    <t>齐格菲 (歌剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%85%8B</t>
@@ -707,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E9%9F%B3%E6%A8%82%E4%BD%9C%E6%9B%B2%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>古典音樂作曲家列表</t>
+    <t>古典音乐作曲家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -719,19 +695,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E4%B9%8B%E6%97%85</t>
   </si>
   <si>
-    <t>發現之旅</t>
+    <t>发现之旅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E4%B9%8B%E6%97%85%E5%8F%A2%E6%9B%B8%E6%9B%B8%E7%9B%AE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>發現之旅叢書書目列表</t>
+    <t>发现之旅丛书书目列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%A0%B1%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>時報文化</t>
+    <t>时报文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -791,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>波希米亞主義</t>
+    <t>波希米亚主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counter-Enlightenment</t>
@@ -821,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E7%89%B9%E5%BE%A9%E8%88%88%E5%BC%8F%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>哥特復興式建築</t>
+    <t>哥特复兴式建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%80%8A%E6%B2%B3%E6%B4%BE</t>
@@ -1091,19 +1067,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%C2%B7%E6%84%9B%E6%98%8E%E5%85%A7%E6%96%AF%E5%BA%AB</t>
   </si>
   <si>
-    <t>米哈伊·愛明內斯庫</t>
+    <t>米哈伊·爱明内斯库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E5%BE%B7%C2%B7%E5%9F%83%E6%96%AF%E6%99%AE%E9%BE%8D%E5%A1%9E%E9%81%94</t>
   </si>
   <si>
-    <t>何塞·德·埃斯普龍塞達</t>
+    <t>何塞·德·埃斯普龙塞达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%89%B9%C2%B7%E7%A6%8F%E9%96%8B</t>
   </si>
   <si>
-    <t>穆特·福開</t>
+    <t>穆特·福开</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%88%88%C2%B7%E7%A6%8F%E6%96%AF%E7%A7%91%E6%B4%9B</t>
@@ -1181,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E8%8D%B7%E7%88%BE%E5%BE%B7%E6%9E%97</t>
   </si>
   <si>
-    <t>弗里德里希·荷爾德林</t>
+    <t>弗里德里希·荷尔德林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E5%A4%9A%C2%B7%E9%9B%A8%E6%9E%9C</t>
@@ -1199,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%C2%B7%E6%AD%90%E6%96%87</t>
   </si>
   <si>
-    <t>華盛頓·歐文</t>
+    <t>华盛顿·欧文</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%C4%90ura_Jak%C5%A1i%C4%87</t>
@@ -1241,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%A0%BC%E8%92%99%E7%89%B9%C2%B7%E5%85%8B%E6%8B%89%E8%BE%9B%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>齊格蒙特·克拉辛斯基</t>
+    <t>齐格蒙特·克拉辛斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%96%B9%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E6%8B%89%E9%A9%AC%E4%B8%81</t>
@@ -1253,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E4%BA%9E%E8%AB%BE%C2%B7%E4%BD%95%E5%A1%9E%C2%B7%E5%BE%B7%C2%B7%E6%8B%89%E8%87%98</t>
   </si>
   <si>
-    <t>馬里亞諾·何塞·德·拉臘</t>
+    <t>马里亚诺·何塞·德·拉腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E7%A7%91%E8%8E%AB%C2%B7%E8%8E%B1%E5%A5%A5%E5%B8%95%E5%B0%94%E8%BF%AA</t>
@@ -1301,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E9%A6%AC%E5%9C%96%E6%9E%97</t>
   </si>
   <si>
-    <t>查爾斯·羅伯特·馬圖林</t>
+    <t>查尔斯·罗伯特·马图林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E5%AF%86%E8%8C%A8%E5%87%AF%E7%BB%B4%E5%A5%87</t>
@@ -1325,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%8B%89%E7%88%BE%C2%B7%E5%BE%B7%C2%B7%E5%85%A7%E7%93%A6%E7%88%BE</t>
   </si>
   <si>
-    <t>熱拉爾·德·內瓦爾</t>
+    <t>热拉尔·德·内瓦尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E8%AF%BA%E8%BF%AA%E5%9F%83</t>
@@ -1337,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%C2%B7%E8%AB%BE%E7%88%BE%E7%B6%AD%E7%89%B9</t>
   </si>
   <si>
-    <t>塞浦路斯·諾爾維特</t>
+    <t>塞浦路斯·诺尔维特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%93%A6%E5%88%A9%E6%96%AF</t>
@@ -1349,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%88%88%E7%89%B9%E6%B4%9B%E5%B8%83%C2%B7%E5%A5%A7%E5%80%AB%E6%96%BD%E6%8B%89%E6%A0%BC</t>
   </si>
   <si>
-    <t>亞當·戈特洛布·奧倫施拉格</t>
+    <t>亚当·戈特洛布·奥伦施拉格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Grigol_Orbeliani</t>
@@ -1367,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E6%B3%A2%E9%87%8C%E9%81%93%E5%88%A9</t>
   </si>
   <si>
-    <t>約翰·威廉·波里道利</t>
+    <t>约翰·威廉·波里道利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jan_Potocki</t>
@@ -1439,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%88%A9%E7%83%8F%E4%BB%80%C2%B7%E6%96%AF%E6%B2%83%E7%93%A6%E8%8C%A8%E5%9F%BA</t>
   </si>
   <si>
-    <t>尤利烏什·斯沃瓦茨基</t>
+    <t>尤利乌什·斯沃瓦茨基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%9B%BC%C2%B7%E5%BE%B7%C2%B7%E6%96%AF%E6%88%B4%E5%B0%94</t>
@@ -1457,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E8%92%82%E5%85%8B</t>
   </si>
   <si>
-    <t>路德維希·蒂克</t>
+    <t>路德维希·蒂克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%A5%A5%E5%A4%9A%E5%B0%94%C2%B7%E7%A7%8B%E5%88%87%E5%A4%AB</t>
@@ -1817,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%88%88%E7%89%B9%E5%88%A9%E5%B8%83%C2%B7%E8%B2%BB%E5%B8%8C%E7%89%B9</t>
   </si>
   <si>
-    <t>約翰·戈特利布·費希特</t>
+    <t>约翰·戈特利布·费希特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E9%BB%91%E6%A0%BC%E5%B0%94</t>
@@ -1835,13 +1811,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E7%B1%B3%E5%8B%92_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
-    <t>亞當·米勒 (作家)</t>
+    <t>亚当·米勒 (作家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B8%83%E9%9B%B7%E8%B5%AB%E7%89%B9%C2%B7%E7%AB%8B%E6%95%95%E7%88%BE</t>
   </si>
   <si>
-    <t>阿爾布雷赫特·立敕爾</t>
+    <t>阿尔布雷赫特·立敕尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -1859,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E6%96%BD%E5%8B%92%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>卡爾·威廉·施勒格爾</t>
+    <t>卡尔·威廉·施勒格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9B%BE%E5%B0%94%C2%B7%E5%8F%94%E6%9C%AC%E5%8D%8E</t>
@@ -1871,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%96%BD%E8%90%8A%E7%88%BE%E9%A6%AC%E8%B5%AB</t>
   </si>
   <si>
-    <t>弗里德里希·施萊爾馬赫</t>
+    <t>弗里德里希·施莱尔马赫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wilhelm_Heinrich_Wackenroder</t>
@@ -1889,13 +1865,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E6%AF%94%E7%88%BE%E6%96%BD%E5%A1%94%E7%89%B9</t>
   </si>
   <si>
-    <t>阿爾伯特·比爾施塔特</t>
+    <t>阿尔伯特·比尔施塔特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E5%B8%95%E5%85%8B%E6%96%AF%C2%B7%E6%B3%A2%E5%AF%A7%E9%A0%93</t>
   </si>
   <si>
-    <t>理查·帕克斯·波寧頓</t>
+    <t>理查·帕克斯·波宁顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Karl_Bryullov</t>
@@ -1913,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%9F%83%E5%BE%B7%E6%BA%AB%C2%B7%E4%B8%98%E5%A5%87</t>
   </si>
   <si>
-    <t>弗雷德里克·埃德溫·丘奇</t>
+    <t>弗雷德里克·埃德温·丘奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%BA%B7%E6%96%AF%E7%89%B9%E5%8B%83</t>
@@ -1925,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E7%A7%91%E7%88%BE</t>
   </si>
   <si>
-    <t>托馬斯·科爾</t>
+    <t>托马斯·科尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E5%B7%B4%E8%92%82%E6%96%AF%C2%B7%E5%8D%A1%E7%B1%B3%E8%80%B6%C2%B7%E6%9F%AF%E6%B4%9B</t>
@@ -1967,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%82%91%E5%88%A9%E6%9F%AF</t>
   </si>
   <si>
-    <t>西奧多·傑利柯</t>
+    <t>西奥多·杰利柯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%C2%B7%E8%B7%AF%E6%98%93%C2%B7%E5%90%89%E7%BD%97%E4%BB%A3%C2%B7%E7%89%B9%E9%87%8C%E5%A5%A5%E6%9D%BE</t>
@@ -2165,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E5%AE%9E%E4%B8%BB%E4%B9%89</t>
@@ -2177,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2195,7 +2171,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2213,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2237,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MusicBrainz</t>
@@ -2249,13 +2225,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3222,7 +3198,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
         <v>13</v>
@@ -3248,10 +3224,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -3277,10 +3253,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3306,10 +3282,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -3335,10 +3311,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3364,10 +3340,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -3393,10 +3369,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -3422,10 +3398,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3451,10 +3427,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3480,10 +3456,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -3509,10 +3485,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3538,10 +3514,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3567,10 +3543,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3596,10 +3572,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3625,10 +3601,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -3654,10 +3630,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -3683,10 +3659,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3712,10 +3688,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3741,10 +3717,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>17</v>
@@ -3770,10 +3746,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3799,10 +3775,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3828,10 +3804,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3857,10 +3833,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3886,10 +3862,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3915,10 +3891,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3944,10 +3920,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -3973,10 +3949,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -4002,10 +3978,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4031,10 +4007,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>9</v>
@@ -4089,10 +4065,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4118,10 +4094,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4147,10 +4123,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4176,10 +4152,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -4205,10 +4181,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -4234,10 +4210,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -4263,10 +4239,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4292,10 +4268,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4321,10 +4297,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>7</v>
@@ -4350,10 +4326,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -4379,10 +4355,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -4408,10 +4384,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4437,10 +4413,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -4466,10 +4442,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -4495,10 +4471,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="G64" t="n">
         <v>8</v>
@@ -4524,10 +4500,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4553,10 +4529,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>7</v>
@@ -4582,10 +4558,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4611,10 +4587,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4640,10 +4616,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4669,10 +4645,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4698,10 +4674,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4727,10 +4703,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4756,10 +4732,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4785,10 +4761,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4814,10 +4790,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4843,10 +4819,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4872,10 +4848,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4901,10 +4877,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4930,10 +4906,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4959,10 +4935,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -4988,10 +4964,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5017,10 +4993,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5046,10 +5022,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -5075,10 +5051,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -5104,10 +5080,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -5133,10 +5109,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5162,10 +5138,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5191,10 +5167,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5220,10 +5196,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5249,10 +5225,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5278,10 +5254,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5307,10 +5283,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -5336,10 +5312,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93" t="s">
         <v>63</v>
-      </c>
-      <c r="F93" t="s">
-        <v>64</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
@@ -5365,10 +5341,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5394,10 +5370,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5423,10 +5399,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5452,10 +5428,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5481,10 +5457,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>6</v>
@@ -5510,10 +5486,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5539,10 +5515,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5568,10 +5544,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5597,10 +5573,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5626,10 +5602,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5655,10 +5631,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5684,10 +5660,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -5713,10 +5689,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5742,10 +5718,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5771,10 +5747,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5800,10 +5776,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5829,10 +5805,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" t="s">
         <v>67</v>
-      </c>
-      <c r="F110" t="s">
-        <v>68</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5858,10 +5834,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5887,10 +5863,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5916,10 +5892,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5945,10 +5921,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5974,10 +5950,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6003,10 +5979,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6032,10 +6008,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6061,10 +6037,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F118" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6090,10 +6066,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6119,10 +6095,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6148,10 +6124,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6177,10 +6153,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6206,10 +6182,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G123" t="n">
         <v>7</v>
@@ -6235,10 +6211,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6264,10 +6240,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6293,10 +6269,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6322,10 +6298,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6351,10 +6327,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6380,10 +6356,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -6409,10 +6385,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6438,10 +6414,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6467,10 +6443,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6496,10 +6472,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6525,10 +6501,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6554,10 +6530,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6583,10 +6559,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6612,10 +6588,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6641,10 +6617,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6670,10 +6646,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6699,10 +6675,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6728,10 +6704,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6757,10 +6733,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6786,10 +6762,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6815,10 +6791,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6844,10 +6820,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6873,10 +6849,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6902,10 +6878,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6931,10 +6907,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6960,10 +6936,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6989,10 +6965,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7018,10 +6994,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7047,10 +7023,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7076,10 +7052,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7105,10 +7081,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7134,10 +7110,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7163,10 +7139,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7192,10 +7168,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7221,10 +7197,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7250,10 +7226,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7279,10 +7255,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7308,10 +7284,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7337,10 +7313,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7366,10 +7342,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7395,10 +7371,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7424,10 +7400,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7453,10 +7429,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7482,10 +7458,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7511,10 +7487,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7540,10 +7516,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7569,10 +7545,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7598,10 +7574,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7627,10 +7603,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7656,10 +7632,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7685,10 +7661,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7714,10 +7690,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7743,10 +7719,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7772,10 +7748,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7801,10 +7777,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7830,10 +7806,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7859,10 +7835,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7888,10 +7864,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7917,10 +7893,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7946,10 +7922,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7975,10 +7951,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8004,10 +7980,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8033,10 +8009,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8062,10 +8038,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8091,10 +8067,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8120,10 +8096,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8149,10 +8125,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8178,10 +8154,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8207,10 +8183,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8236,10 +8212,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8265,10 +8241,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8294,10 +8270,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8323,10 +8299,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8352,10 +8328,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8381,10 +8357,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8410,10 +8386,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8439,10 +8415,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8468,10 +8444,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8497,10 +8473,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8526,10 +8502,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8555,10 +8531,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8584,10 +8560,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8613,10 +8589,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8642,10 +8618,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8671,10 +8647,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8700,10 +8676,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8729,10 +8705,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8758,10 +8734,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8787,10 +8763,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8816,10 +8792,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8845,10 +8821,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8874,10 +8850,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8903,10 +8879,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8932,10 +8908,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8961,10 +8937,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8990,10 +8966,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9019,10 +8995,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9048,10 +9024,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9077,10 +9053,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9106,10 +9082,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9135,10 +9111,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9164,10 +9140,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9193,10 +9169,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9222,10 +9198,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9251,10 +9227,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9280,10 +9256,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9309,10 +9285,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9338,10 +9314,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9367,10 +9343,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9396,10 +9372,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9425,10 +9401,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9454,10 +9430,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9483,10 +9459,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9512,10 +9488,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9541,10 +9517,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9570,10 +9546,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9599,10 +9575,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9628,10 +9604,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9657,10 +9633,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9686,10 +9662,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9715,10 +9691,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9744,10 +9720,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9773,10 +9749,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9802,10 +9778,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9831,10 +9807,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9860,10 +9836,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9889,10 +9865,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9918,10 +9894,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9947,10 +9923,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9976,10 +9952,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>33</v>
@@ -10005,10 +9981,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10034,10 +10010,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10063,10 +10039,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10092,10 +10068,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10121,10 +10097,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10150,10 +10126,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10179,10 +10155,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10208,10 +10184,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10237,10 +10213,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10266,10 +10242,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10295,10 +10271,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10324,10 +10300,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10353,10 +10329,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10382,10 +10358,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10411,10 +10387,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10440,10 +10416,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10469,10 +10445,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10498,10 +10474,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10527,10 +10503,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10556,10 +10532,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10585,10 +10561,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10614,10 +10590,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10643,10 +10619,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10672,10 +10648,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10701,10 +10677,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10730,10 +10706,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10759,10 +10735,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10788,10 +10764,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10846,10 +10822,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10875,10 +10851,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10904,10 +10880,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10933,10 +10909,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10962,10 +10938,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10991,10 +10967,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11020,10 +10996,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11049,10 +11025,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11078,10 +11054,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11107,10 +11083,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11136,10 +11112,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11165,10 +11141,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11194,10 +11170,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11223,10 +11199,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11252,10 +11228,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11281,10 +11257,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G298" t="n">
         <v>7</v>
@@ -11310,10 +11286,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11339,10 +11315,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11368,10 +11344,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11397,10 +11373,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11426,10 +11402,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11484,10 +11460,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F305" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11513,10 +11489,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F306" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11542,10 +11518,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11571,10 +11547,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F308" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11600,10 +11576,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11629,10 +11605,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11658,10 +11634,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11687,10 +11663,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11716,10 +11692,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11745,10 +11721,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11774,10 +11750,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F315" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11803,10 +11779,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F316" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11832,10 +11808,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F317" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11861,10 +11837,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F318" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11890,10 +11866,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11919,10 +11895,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11948,10 +11924,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11977,10 +11953,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12006,10 +11982,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12035,10 +12011,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F324" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12064,10 +12040,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F325" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12093,10 +12069,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F326" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12122,10 +12098,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F327" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12151,10 +12127,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12180,10 +12156,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12209,10 +12185,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12238,10 +12214,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12267,10 +12243,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12296,10 +12272,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12325,10 +12301,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12354,10 +12330,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12383,10 +12359,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12412,10 +12388,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12441,10 +12417,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12470,10 +12446,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12499,10 +12475,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12528,10 +12504,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12557,10 +12533,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12586,10 +12562,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12615,10 +12591,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12644,10 +12620,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F345" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12673,10 +12649,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F346" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12702,10 +12678,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F347" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12731,10 +12707,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F348" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12760,10 +12736,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F349" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12789,10 +12765,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F350" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12818,10 +12794,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F351" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12847,10 +12823,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F352" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12876,10 +12852,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F353" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12905,10 +12881,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F354" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12934,10 +12910,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F355" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12963,10 +12939,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F356" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12992,10 +12968,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F357" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13021,10 +12997,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F358" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13050,10 +13026,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F359" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13079,10 +13055,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F360" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13108,10 +13084,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F361" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13137,10 +13113,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F362" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13166,10 +13142,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F363" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13195,10 +13171,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F364" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13224,10 +13200,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F365" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13253,10 +13229,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F366" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13282,10 +13258,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F367" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G367" t="n">
         <v>5</v>
@@ -13311,10 +13287,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F368" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13340,10 +13316,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F369" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13369,10 +13345,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F370" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13398,10 +13374,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F371" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13427,10 +13403,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F372" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13456,10 +13432,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F373" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13485,10 +13461,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F374" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13514,10 +13490,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F375" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13543,10 +13519,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F376" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13572,10 +13548,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F377" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13601,10 +13577,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F378" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13630,10 +13606,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F379" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13659,10 +13635,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F380" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13688,10 +13664,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F381" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13717,10 +13693,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -13746,10 +13722,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F383" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13775,10 +13751,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F384" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13804,10 +13780,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F385" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13833,10 +13809,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13862,10 +13838,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F387" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G387" t="n">
         <v>8</v>
@@ -13891,10 +13867,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F388" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
